--- a/Aurora/Requirements/User Stories/Requirement Gathering process(MOM).xlsx
+++ b/Aurora/Requirements/User Stories/Requirement Gathering process(MOM).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C122702-0703-4421-9FEF-97F856D20654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADE3233-1F5D-42E4-A52D-4A0ECDDF9D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1   04.04.2022" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Day 12 20.04.2022  " sheetId="13" r:id="rId12"/>
     <sheet name="Day 13 21.04.2022   " sheetId="14" r:id="rId13"/>
     <sheet name="Day 14 22.04.2022  " sheetId="15" r:id="rId14"/>
+    <sheet name="Day 15 23.04.2022  " sheetId="16" r:id="rId15"/>
+    <sheet name="Day 17 26.04.2022  " sheetId="17" r:id="rId16"/>
+    <sheet name="Day 26 05.05.2022   " sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="453">
   <si>
     <t>Actors</t>
   </si>
@@ -1670,6 +1673,123 @@
   </si>
   <si>
     <t>Pagination can be kept in the floating in the pages</t>
+  </si>
+  <si>
+    <t>Day 15-Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>In System Architecture cross cutting layer has to be changed</t>
+  </si>
+  <si>
+    <t>In Dependency diagram , No depencies has to be changed to MasterTable</t>
+  </si>
+  <si>
+    <t>Rework the Spam Reports in Wireframe, DataModel,DB Diagram,Services</t>
+  </si>
+  <si>
+    <t>In Interaction Diagram, The admin service should interact with department Services</t>
+  </si>
+  <si>
+    <t>In NFR there should be no He/She, Only User and Business rules should not be there in NFR</t>
+  </si>
+  <si>
+    <t>Performance andother kind of stuffs should be added to NFR</t>
+  </si>
+  <si>
+    <t>Day 17-Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>Rework the Estimation</t>
+  </si>
+  <si>
+    <t>For One Service, It would Take upto 3 Hours, Consider it in Estimation</t>
+  </si>
+  <si>
+    <t>For 10 hours of Implemented code,it  will take 1 hour of testing</t>
+  </si>
+  <si>
+    <t>Day wise Integration --&gt;For Integration,Testing 1 person will be alloted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 days once --&gt; Code Merging,Integration testing,Compatability testing should be done.  </t>
+  </si>
+  <si>
+    <t>Compatability testing  --&gt; 2 persons should do that on 2 different browsers</t>
+  </si>
+  <si>
+    <t>For Estimating the time we should consider the prototype,HTML Complexity,HTML Validation,Services</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>For Logo Appearing, Relative URL should be used.</t>
+  </si>
+  <si>
+    <t>Home page should be changed</t>
+  </si>
+  <si>
+    <t>In Home Page Latest Articles,Trending Articles,Latest Queries,Trending Queries can be shown</t>
+  </si>
+  <si>
+    <t>Registration Page should be aligned</t>
+  </si>
+  <si>
+    <t>In Specific Query Page,Report button should be aligned in right .</t>
+  </si>
+  <si>
+    <t>In Reason For Report page buttons should be alligned</t>
+  </si>
+  <si>
+    <t>Reviewer Page footer should be changed</t>
+  </si>
+  <si>
+    <t>ToReveiw Brudcrum should be named correctly</t>
+  </si>
+  <si>
+    <t>Either Back/Brudcrum should be used in the entire application. Brudcrum is most suggestable</t>
+  </si>
+  <si>
+    <t>In Reviewer side,search bar should be aligned</t>
+  </si>
+  <si>
+    <t>in Admin Side, Users to be verified header should be changed</t>
+  </si>
+  <si>
+    <t>Day 26-Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>For methods Include Comments</t>
+  </si>
+  <si>
+    <t>Another Method For Displaying Trending Queries,Trending Articles</t>
+  </si>
+  <si>
+    <t>Comments For Recognizing Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helper Service Object should not be null </t>
+  </si>
+  <si>
+    <t>Case-Sensitive For Title,(Print the Same Data given by the user</t>
+  </si>
+  <si>
+    <t>Functions Created should be Reuseable and Maintainable</t>
+  </si>
+  <si>
+    <t>Set User DefaultProperty values as private or keep it in validation</t>
+  </si>
+  <si>
+    <t>Exception message should be validate in user</t>
+  </si>
+  <si>
+    <t>Development team shoul not be static</t>
+  </si>
+  <si>
+    <t>Logging Requires Development team Find in the get</t>
+  </si>
+  <si>
+    <t>Arguments and parameters Explore</t>
   </si>
 </sst>
 </file>
@@ -6949,7 +7069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FEEDE-288C-47BB-B4CE-7DBF47C44A5D}">
   <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="C32" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -7875,7 +7995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8087FBF-3C66-432E-9AFD-3BFAE6892DDE}">
   <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -8647,6 +8767,2868 @@
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8DC053-D527-46CE-B18C-60ADE7B38725}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="43"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="43"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11">
+        <v>2</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11">
+        <v>4</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11">
+        <v>5</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11">
+        <v>6</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52731B6-8B14-4651-BA9B-3F09729F59CE}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="43"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="43"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11">
+        <v>2</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11">
+        <v>4</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11">
+        <v>5</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11">
+        <v>6</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11">
+        <v>7</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="M14" t="s">
+        <v>429</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11">
+        <v>8</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11">
+        <v>9</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11">
+        <v>10</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11">
+        <v>11</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11">
+        <v>12</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11">
+        <v>13</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11">
+        <v>14</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11">
+        <v>15</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="K23" s="43">
+        <v>16</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="K24" s="43">
+        <v>17</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="K25" s="43">
+        <v>18</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="K26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4829F6B5-0149-40C8-AC8D-36CD937DDD65}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView topLeftCell="J11" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="43"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="43"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11">
+        <v>2</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11">
+        <v>4</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11">
+        <v>5</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11">
+        <v>6</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11">
+        <v>7</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="K13" s="43">
+        <v>8</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="K14" s="43">
+        <v>9</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11">
+        <v>10</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11">
+        <v>11</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
     </row>
     <row r="26" spans="1:28" ht="18.75">
       <c r="A26" s="47" t="s">

--- a/Aurora/Requirements/User Stories/Requirement Gathering process(MOM).xlsx
+++ b/Aurora/Requirements/User Stories/Requirement Gathering process(MOM).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25301"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ADE3233-1F5D-42E4-A52D-4A0ECDDF9D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA07415-0965-4AB2-A539-A5887A3A8114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1   04.04.2022" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="Day 14 22.04.2022  " sheetId="15" r:id="rId14"/>
     <sheet name="Day 15 23.04.2022  " sheetId="16" r:id="rId15"/>
     <sheet name="Day 17 26.04.2022  " sheetId="17" r:id="rId16"/>
-    <sheet name="Day 26 05.05.2022   " sheetId="18" r:id="rId17"/>
+    <sheet name="06.05.2022" sheetId="19" r:id="rId17"/>
+    <sheet name="Day 26 05.05.2022   " sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="458">
   <si>
     <t>Actors</t>
   </si>
@@ -1754,6 +1755,21 @@
   </si>
   <si>
     <t>in Admin Side, Users to be verified header should be changed</t>
+  </si>
+  <si>
+    <t>Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>1.Sequence Diagram Should be include all the codes.</t>
+  </si>
+  <si>
+    <t>2.Need to work on userservice</t>
+  </si>
+  <si>
+    <t>3.send mail to rafi (logfile)</t>
+  </si>
+  <si>
+    <t>4.Proper Exception</t>
   </si>
   <si>
     <t>Day 26-Minutes of Meeting</t>
@@ -1981,7 +1997,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2066,6 +2082,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2088,7 +2110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2149,6 +2171,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9883,7 +9907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52731B6-8B14-4651-BA9B-3F09729F59CE}">
   <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -10859,6 +10883,76 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDBDB3A-70A7-45E1-BF98-AC2E116C3A2E}">
+  <dimension ref="E7:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="5:11" ht="18.75">
+      <c r="E7" s="55" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="5:11" ht="18.75">
+      <c r="E8" s="55" t="s">
+        <v>442</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="5:11" ht="18.75">
+      <c r="E9" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="5:11" ht="18.75">
+      <c r="E10" s="55" t="s">
+        <v>444</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="5:11" ht="18.75">
+      <c r="E11" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4829F6B5-0149-40C8-AC8D-36CD937DDD65}">
   <dimension ref="A1:AB134"/>
   <sheetViews>
@@ -10950,7 +11044,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="33"/>
       <c r="N4" s="12" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="O4" s="50"/>
       <c r="P4" s="11"/>
@@ -11012,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -11042,7 +11136,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -11082,7 +11176,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="43"/>
@@ -11122,7 +11216,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -11152,7 +11246,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -11182,7 +11276,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -11212,7 +11306,7 @@
         <v>7</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -11242,7 +11336,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="43" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -11272,7 +11366,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="43" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -11304,7 +11398,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -11344,7 +11438,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>

--- a/Aurora/Requirements/User Stories/Requirement Gathering process(MOM).xlsx
+++ b/Aurora/Requirements/User Stories/Requirement Gathering process(MOM).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25301"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA07415-0965-4AB2-A539-A5887A3A8114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2319EE6-7D0C-4BC5-A4C2-3E16FC392CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1   04.04.2022" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="Day 14 22.04.2022  " sheetId="15" r:id="rId14"/>
     <sheet name="Day 15 23.04.2022  " sheetId="16" r:id="rId15"/>
     <sheet name="Day 17 26.04.2022  " sheetId="17" r:id="rId16"/>
-    <sheet name="06.05.2022" sheetId="19" r:id="rId17"/>
-    <sheet name="Day 26 05.05.2022   " sheetId="18" r:id="rId18"/>
+    <sheet name="Day 26 05.05.2022   " sheetId="18" r:id="rId17"/>
+    <sheet name="Day 27 06.05.2022" sheetId="19" r:id="rId18"/>
+    <sheet name="Day 28 09-05-2022" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="462">
   <si>
     <t>Actors</t>
   </si>
@@ -1757,6 +1758,42 @@
     <t>in Admin Side, Users to be verified header should be changed</t>
   </si>
   <si>
+    <t>Day 26-Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>For methods Include Comments</t>
+  </si>
+  <si>
+    <t>Another Method For Displaying Trending Queries,Trending Articles</t>
+  </si>
+  <si>
+    <t>Comments For Recognizing Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helper Service Object should not be null </t>
+  </si>
+  <si>
+    <t>Case-Sensitive For Title,(Print the Same Data given by the user</t>
+  </si>
+  <si>
+    <t>Functions Created should be Reuseable and Maintainable</t>
+  </si>
+  <si>
+    <t>Set User DefaultProperty values as private or keep it in validation</t>
+  </si>
+  <si>
+    <t>Exception message should be validate in user</t>
+  </si>
+  <si>
+    <t>Development team shoul not be static</t>
+  </si>
+  <si>
+    <t>Logging Requires Development team Find in the get</t>
+  </si>
+  <si>
+    <t>Arguments and parameters Explore</t>
+  </si>
+  <si>
     <t>Minutes of Meeting</t>
   </si>
   <si>
@@ -1772,40 +1809,16 @@
     <t>4.Proper Exception</t>
   </si>
   <si>
-    <t>Day 26-Minutes of Meeting</t>
-  </si>
-  <si>
-    <t>For methods Include Comments</t>
-  </si>
-  <si>
-    <t>Another Method For Displaying Trending Queries,Trending Articles</t>
-  </si>
-  <si>
-    <t>Comments For Recognizing Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helper Service Object should not be null </t>
-  </si>
-  <si>
-    <t>Case-Sensitive For Title,(Print the Same Data given by the user</t>
-  </si>
-  <si>
-    <t>Functions Created should be Reuseable and Maintainable</t>
-  </si>
-  <si>
-    <t>Set User DefaultProperty values as private or keep it in validation</t>
-  </si>
-  <si>
-    <t>Exception message should be validate in user</t>
-  </si>
-  <si>
-    <t>Development team shoul not be static</t>
-  </si>
-  <si>
-    <t>Logging Requires Development team Find in the get</t>
-  </si>
-  <si>
-    <t>Arguments and parameters Explore</t>
+    <t>1.All Button should be Same</t>
+  </si>
+  <si>
+    <t>2.Update spam report  wireframe</t>
+  </si>
+  <si>
+    <t>3.Inline css should be removed</t>
+  </si>
+  <si>
+    <t>4.Overall responsiveness should be checked</t>
   </si>
 </sst>
 </file>
@@ -10883,80 +10896,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDBDB3A-70A7-45E1-BF98-AC2E116C3A2E}">
-  <dimension ref="E7:K11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="7" spans="5:11" ht="18.75">
-      <c r="E7" s="55" t="s">
-        <v>441</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-    </row>
-    <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="55" t="s">
-        <v>442</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-    </row>
-    <row r="9" spans="5:11" ht="18.75">
-      <c r="E9" s="55" t="s">
-        <v>443</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-    </row>
-    <row r="10" spans="5:11" ht="18.75">
-      <c r="E10" s="55" t="s">
-        <v>444</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-    </row>
-    <row r="11" spans="5:11" ht="18.75">
-      <c r="E11" s="55" t="s">
-        <v>445</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4829F6B5-0149-40C8-AC8D-36CD937DDD65}">
   <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView topLeftCell="J11" workbookViewId="0">
+    <sheetView topLeftCell="C23" workbookViewId="0">
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
@@ -11044,7 +10987,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="33"/>
       <c r="N4" s="12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O4" s="50"/>
       <c r="P4" s="11"/>
@@ -11106,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -11136,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -11176,7 +11119,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="43"/>
@@ -11216,7 +11159,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -11246,7 +11189,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -11276,7 +11219,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -11306,7 +11249,7 @@
         <v>7</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -11336,7 +11279,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="43" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -11366,7 +11309,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="43" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -11398,7 +11341,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -11438,7 +11381,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -11899,6 +11842,146 @@
     </row>
     <row r="134" spans="2:2" ht="26.25">
       <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDBDB3A-70A7-45E1-BF98-AC2E116C3A2E}">
+  <dimension ref="E7:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="5:11" ht="18.75">
+      <c r="E7" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="5:11" ht="18.75">
+      <c r="E8" s="55" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="5:11" ht="18.75">
+      <c r="E9" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="5:11" ht="18.75">
+      <c r="E10" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="5:11" ht="18.75">
+      <c r="E11" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE55E08-23C2-4262-8D95-64189A11F511}">
+  <dimension ref="E7:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="7" spans="5:11" ht="18.75">
+      <c r="E7" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="5:11" ht="18.75">
+      <c r="E8" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="5:11" ht="18.75">
+      <c r="E9" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="5:11" ht="18.75">
+      <c r="E10" s="55" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="5:11" ht="18.75">
+      <c r="E11" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
